--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,82 +66,76 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.872268981942772y_1 + 0.3123099852836394y_2</t>
-  </si>
-  <si>
-    <t>-2.647115197050425</t>
+    <t>1.5092421543248782y_1 + 0.3203062014027182y_2</t>
+  </si>
+  <si>
+    <t>7.706172739445797</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.24011722556595838</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.8626017230215338</t>
+  </si>
+  <si>
+    <t>-4 + 0.925804466693197y_1 - 0.009471102417751735y_2</t>
+  </si>
+  <si>
+    <t>0.29210593221048425</t>
+  </si>
+  <si>
+    <t>0.1083236165390392</t>
+  </si>
+  <si>
+    <t>0.5145103609416063</t>
+  </si>
+  <si>
+    <t>-16 - 2x + 2.240041564621893y_1 - 0.35231027860011516y_2</t>
+  </si>
+  <si>
+    <t>-18.061482347416565</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.668826785333615</t>
-  </si>
-  <si>
-    <t>0.45431458518070245</t>
-  </si>
-  <si>
-    <t>0.8218084309941561</t>
-  </si>
-  <si>
-    <t>-4 + 0.872268981942772y_1 - 0.3123099852836394y_2</t>
-  </si>
-  <si>
-    <t>-1.3528848029495748</t>
-  </si>
-  <si>
-    <t>0.35490416055703744</t>
-  </si>
-  <si>
-    <t>0.10178942102153064</t>
-  </si>
-  <si>
-    <t>0.31680062490037586</t>
-  </si>
-  <si>
-    <t>-16 - 2x + 4.36134490971386y_1 - 1.5615499264181971y_2</t>
-  </si>
-  <si>
-    <t>-13.538407745691462</t>
-  </si>
-  <si>
-    <t>0.2579054977982502</t>
-  </si>
-  <si>
-    <t>0.017673204237491406</t>
-  </si>
-  <si>
-    <t>0.3206445811758578</t>
-  </si>
-  <si>
-    <t>-48 + 8x + 0.872268981942772y_1 - 0.3123099852836394y_2</t>
-  </si>
-  <si>
-    <t>-2.256949879175231</t>
-  </si>
-  <si>
-    <t>0.37312343383402724</t>
-  </si>
-  <si>
-    <t>0.7122051554927713</t>
-  </si>
-  <si>
-    <t>0.306789613492331</t>
-  </si>
-  <si>
-    <t>12 - 2x - 1.744537963885544y_1 + 0.6246199705672788y_2</t>
-  </si>
-  <si>
-    <t>-4.068214125044436</t>
-  </si>
-  <si>
-    <t>0.9717867614749729</t>
-  </si>
-  <si>
-    <t>0.3910716398908155</t>
-  </si>
-  <si>
-    <t>0.9536156378735784</t>
+    <t>0.1102758390135593</t>
+  </si>
+  <si>
+    <t>0.2686673865651241</t>
+  </si>
+  <si>
+    <t>-48 + 8x + 0.016033409943699617y_1 - 0.12560390005599806y_2</t>
+  </si>
+  <si>
+    <t>-1.1877764405453983</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.3168885247170169</t>
+  </si>
+  <si>
+    <t>0.8383936992491441</t>
+  </si>
+  <si>
+    <t>12 - 2x - 0.032066819887399234y_1 + 0.2512078001119961y_2</t>
+  </si>
+  <si>
+    <t>0.6305578800946663</t>
+  </si>
+  <si>
+    <t>0.4167665579899481</t>
+  </si>
+  <si>
+    <t>0.29544899638169286</t>
   </si>
   <si>
     <t>x</t>
@@ -153,34 +147,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.386991865471793</t>
-  </si>
-  <si>
-    <t>4.081261346001524</t>
-  </si>
-  <si>
-    <t>2.9228731878030403</t>
+    <t>5.875357499928848</t>
+  </si>
+  <si>
+    <t>4.657691821664619</t>
+  </si>
+  <si>
+    <t>2.112315956957238</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.5188650387381282</t>
-  </si>
-  <si>
-    <t>-0.18577610343495088</t>
+    <t>0.2985795847191042</t>
+  </si>
+  <si>
+    <t>-0.1019263563856154</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-3.880151555685557</t>
-  </si>
-  <si>
-    <t>3.2914226831832436</t>
-  </si>
-  <si>
-    <t>-2.104341912621454</t>
+    <t>-4.578916828099519</t>
+  </si>
+  <si>
+    <t>2.394205686914393</t>
+  </si>
+  <si>
+    <t>-1.8742592922067505</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -651,21 +645,21 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -674,18 +668,18 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -694,27 +688,27 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -732,24 +726,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -767,17 +761,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -795,22 +789,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -828,17 +822,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.33742071643839977</v>
+        <v>0.5564707754203111</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.825013850105366</v>
+        <v>0.07103381391839458</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,76 +66,79 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.5092421543248782y_1 + 0.3203062014027182y_2</t>
-  </si>
-  <si>
-    <t>7.706172739445797</t>
+    <t>0.9270360882359463y_1 + 0.989582907613092y_2</t>
+  </si>
+  <si>
+    <t>6.4258418245948965</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.24011722556595838</t>
+    <t>0.0866877650392671</t>
+  </si>
+  <si>
+    <t>0.18254418018572394</t>
+  </si>
+  <si>
+    <t>0.7018207991573857</t>
+  </si>
+  <si>
+    <t>-4 + 0.8965435170293287y_1 - 0.05312758170671375y_2</t>
+  </si>
+  <si>
+    <t>-0.19754896467942032</t>
+  </si>
+  <si>
+    <t>0.9648587319705634</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.8626017230215338</t>
-  </si>
-  <si>
-    <t>-4 + 0.925804466693197y_1 - 0.009471102417751735y_2</t>
-  </si>
-  <si>
-    <t>0.29210593221048425</t>
-  </si>
-  <si>
-    <t>0.1083236165390392</t>
-  </si>
-  <si>
-    <t>0.5145103609416063</t>
-  </si>
-  <si>
-    <t>-16 - 2x + 2.240041564621893y_1 - 0.35231027860011516y_2</t>
-  </si>
-  <si>
-    <t>-18.061482347416565</t>
+    <t>0.425069827518858</t>
+  </si>
+  <si>
+    <t>-16 - 2x - 0.32852662910738983y_1 + 3.3177671905060135y_2</t>
+  </si>
+  <si>
+    <t>-21.269467588355326</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.1102758390135593</t>
-  </si>
-  <si>
-    <t>0.2686673865651241</t>
-  </si>
-  <si>
-    <t>-48 + 8x + 0.016033409943699617y_1 - 0.12560390005599806y_2</t>
-  </si>
-  <si>
-    <t>-1.1877764405453983</t>
+    <t>0.9761226555169311</t>
+  </si>
+  <si>
+    <t>0.7333987827273575</t>
+  </si>
+  <si>
+    <t>-48 + 8x + 0.20867847500363246y_1 - 0.4063640843797479y_2</t>
+  </si>
+  <si>
+    <t>-1.0489988692656744</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.3168885247170169</t>
-  </si>
-  <si>
-    <t>0.8383936992491441</t>
-  </si>
-  <si>
-    <t>12 - 2x - 0.032066819887399234y_1 + 0.2512078001119961y_2</t>
-  </si>
-  <si>
-    <t>0.6305578800946663</t>
-  </si>
-  <si>
-    <t>0.4167665579899481</t>
-  </si>
-  <si>
-    <t>0.29544899638169286</t>
+    <t>0.8143958706897286</t>
+  </si>
+  <si>
+    <t>0.3400618792126797</t>
+  </si>
+  <si>
+    <t>12 - 2x - 0.4173569500072649y_1 + 0.8127281687594958y_2</t>
+  </si>
+  <si>
+    <t>0.35976267716903676</t>
+  </si>
+  <si>
+    <t>0.23927405565041526</t>
+  </si>
+  <si>
+    <t>0.8897524486363444</t>
   </si>
   <si>
     <t>x</t>
@@ -147,34 +150,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.875357499928848</t>
-  </si>
-  <si>
-    <t>4.657691821664619</t>
-  </si>
-  <si>
-    <t>2.112315956957238</t>
+    <t>5.875840352759835</t>
+  </si>
+  <si>
+    <t>4.382729079133727</t>
+  </si>
+  <si>
+    <t>2.387767396848251</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.2985795847191042</t>
-  </si>
-  <si>
-    <t>-0.1019263563856154</t>
+    <t>0.30519755975240304</t>
+  </si>
+  <si>
+    <t>-3.1365953726124545</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-4.578916828099519</t>
-  </si>
-  <si>
-    <t>2.394205686914393</t>
-  </si>
-  <si>
-    <t>-1.8742592922067505</t>
+    <t>1.525807429025966</t>
+  </si>
+  <si>
+    <t>3.3720967610146593</t>
+  </si>
+  <si>
+    <t>-5.198826963536688</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -645,70 +648,70 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -726,24 +729,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -761,17 +764,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -789,22 +792,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -822,17 +825,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.5564707754203111</v>
+        <v>0.4890013063486953</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.07103381391839458</v>
+        <v>0.2511148273336813</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,79 +66,79 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>0.9270360882359463y_1 + 0.989582907613092y_2</t>
-  </si>
-  <si>
-    <t>6.4258418245948965</t>
+    <t>0.27478192589996686 - 0.185445782038399y_1 + 0.38865877574366636y_2</t>
+  </si>
+  <si>
+    <t>-0.27478192589996686</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.0866877650392671</t>
-  </si>
-  <si>
-    <t>0.18254418018572394</t>
-  </si>
-  <si>
-    <t>0.7018207991573857</t>
-  </si>
-  <si>
-    <t>-4 + 0.8965435170293287y_1 - 0.05312758170671375y_2</t>
-  </si>
-  <si>
-    <t>-0.19754896467942032</t>
-  </si>
-  <si>
-    <t>0.9648587319705634</t>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>9.9</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.425069827518858</t>
-  </si>
-  <si>
-    <t>-16 - 2x - 0.32852662910738983y_1 + 3.3177671905060135y_2</t>
-  </si>
-  <si>
-    <t>-21.269467588355326</t>
+    <t>-10.578432249307559 + 1.3716822688057193y_1 + 0.17734556199482976y_2</t>
+  </si>
+  <si>
+    <t>6.578432249307559</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>52.61516996626992 - 2x - 5.489197429859824y_1 + 0.9037254082856405y_2</t>
+  </si>
+  <si>
+    <t>-68.61516996626992</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9761226555169311</t>
-  </si>
-  <si>
-    <t>0.7333987827273575</t>
-  </si>
-  <si>
-    <t>-48 + 8x + 0.20867847500363246y_1 - 0.4063640843797479y_2</t>
-  </si>
-  <si>
-    <t>-1.0489988692656744</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
+  </si>
+  <si>
+    <t>9.399999999999999</t>
+  </si>
+  <si>
+    <t>-87.49497027933667 + 8x + 3.315792066563272y_1 + 1.104963782177365y_2</t>
+  </si>
+  <si>
+    <t>38.66497027933667</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8143958706897286</t>
-  </si>
-  <si>
-    <t>0.3400618792126797</t>
-  </si>
-  <si>
-    <t>12 - 2x - 0.4173569500072649y_1 + 0.8127281687594958y_2</t>
-  </si>
-  <si>
-    <t>0.35976267716903676</t>
-  </si>
-  <si>
-    <t>0.23927405565041526</t>
-  </si>
-  <si>
-    <t>0.8897524486363444</t>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>4.555913528392346 - 2x + 0.8153449226905218y_1 + 1.3433218892258285y_2</t>
+  </si>
+  <si>
+    <t>6.954086471607654</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>x</t>
@@ -150,34 +150,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.875840352759835</t>
-  </si>
-  <si>
-    <t>4.382729079133727</t>
-  </si>
-  <si>
-    <t>2.387767396848251</t>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>2.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.30519755975240304</t>
-  </si>
-  <si>
-    <t>-3.1365953726124545</t>
+    <t>3.1933833831055205</t>
+  </si>
+  <si>
+    <t>-1.8114140749025767</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.525807429025966</t>
-  </si>
-  <si>
-    <t>3.3720967610146593</t>
-  </si>
-  <si>
-    <t>-5.198826963536688</t>
+    <t>-59.0</t>
+  </si>
+  <si>
+    <t>22.84176734457047</t>
+  </si>
+  <si>
+    <t>-24.99064070142837</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -648,30 +648,30 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -691,24 +691,24 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -830,12 +830,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4890013063486953</v>
+        <v>2.472015670882792</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.2511148273336813</v>
+        <v>1.1795047684717235</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,79 +66,79 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>0.27478192589996686 - 0.185445782038399y_1 + 0.38865877574366636y_2</t>
-  </si>
-  <si>
-    <t>-0.27478192589996686</t>
+    <t>3.728814523931479 - 0.8427522622502988y_1 + 1.3278697854419215y_2</t>
+  </si>
+  <si>
+    <t>-3.728814523931479</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>9.9</t>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
+  </si>
+  <si>
+    <t>-8.17158955096466 + 0.9861703943998634y_1 - 0.11678333617893122y_2</t>
+  </si>
+  <si>
+    <t>4.17158955096466</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-10.578432249307559 + 1.3716822688057193y_1 + 0.17734556199482976y_2</t>
-  </si>
-  <si>
-    <t>6.578432249307559</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
-  </si>
-  <si>
-    <t>52.61516996626992 - 2x - 5.489197429859824y_1 + 0.9037254082856405y_2</t>
-  </si>
-  <si>
-    <t>-68.61516996626992</t>
+    <t>29.207453846923947 - 2x - 0.10425783580457493y_1 - 5.324843946794189y_2</t>
+  </si>
+  <si>
+    <t>-45.20745384692395</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>9.200000000000001</t>
-  </si>
-  <si>
-    <t>9.399999999999999</t>
-  </si>
-  <si>
-    <t>-87.49497027933667 + 8x + 3.315792066563272y_1 + 1.104963782177365y_2</t>
-  </si>
-  <si>
-    <t>38.66497027933667</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>-72.83043423823345 + 8x + 1.2217858972170053y_1 + 1.872858687610267y_2</t>
+  </si>
+  <si>
+    <t>24.270434238233452</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>4.555913528392346 - 2x + 0.8153449226905218y_1 + 1.3433218892258285y_2</t>
-  </si>
-  <si>
-    <t>6.954086471607654</t>
-  </si>
-  <si>
-    <t>0.72</t>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>4.6000000000000005</t>
+  </si>
+  <si>
+    <t>-6.543179101929319 - 2x - 1.9723407887997269y_1 + 0.23356667235786244y_2</t>
+  </si>
+  <si>
+    <t>-18.54317910192932</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>3.4000000000000004</t>
   </si>
   <si>
     <t>x</t>
@@ -150,34 +150,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>2.8</t>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>8.600000000000001</t>
+  </si>
+  <si>
+    <t>2.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.1933833831055205</t>
-  </si>
-  <si>
-    <t>-1.8114140749025767</t>
+    <t>1.9629901237209788</t>
+  </si>
+  <si>
+    <t>-1.6103056219117318</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-59.0</t>
-  </si>
-  <si>
-    <t>22.84176734457047</t>
-  </si>
-  <si>
-    <t>-24.99064070142837</t>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>12.28816800409766</t>
+  </si>
+  <si>
+    <t>-14.766581298730864</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -648,27 +648,27 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -688,30 +688,30 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -830,12 +830,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.472015670882792</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.1795047684717235</v>
+        <v>2.2800000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,79 +66,76 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>3.728814523931479 - 0.8427522622502988y_1 + 1.3278697854419215y_2</t>
-  </si>
-  <si>
-    <t>-3.728814523931479</t>
+    <t>0.6691555555555564 - 0.45600000000000007y_1 + 0.7857777777777776y_2</t>
+  </si>
+  <si>
+    <t>-0.6691555555555564</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>2.8000000000000003</t>
-  </si>
-  <si>
-    <t>-8.17158955096466 + 0.9861703943998634y_1 - 0.11678333617893122y_2</t>
-  </si>
-  <si>
-    <t>4.17158955096466</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>5.5</t>
+    <t>0.35</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>29.207453846923947 - 2x - 0.10425783580457493y_1 - 5.324843946794189y_2</t>
-  </si>
-  <si>
-    <t>-45.20745384692395</t>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>-2.4206000000000003 + 0.6759999999999999y_1 - 0.4679999999999999y_2</t>
+  </si>
+  <si>
+    <t>-1.5793999999999997</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>20.482599999999998 - 2x - 1.1959999999999997y_1 + 0.8280000000000007y_2</t>
+  </si>
+  <si>
+    <t>-36.4826</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>-72.83043423823345 + 8x + 1.2217858972170053y_1 + 1.872858687610267y_2</t>
-  </si>
-  <si>
-    <t>24.270434238233452</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>-69.3236 + 8x + 0.856y_1 - 0.208y_2</t>
+  </si>
+  <si>
+    <t>20.653599999999997</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>4.6000000000000005</t>
-  </si>
-  <si>
-    <t>-6.543179101929319 - 2x - 1.9723407887997269y_1 + 0.23356667235786244y_2</t>
-  </si>
-  <si>
-    <t>-18.54317910192932</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>3.4000000000000004</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>5.187911111111112 - 2x - 1.072y_1 + 1.3404444444444443y_2</t>
+  </si>
+  <si>
+    <t>-6.812088888888888</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.4000000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -150,34 +147,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>8.600000000000001</t>
-  </si>
-  <si>
-    <t>2.65</t>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.9629901237209788</t>
-  </si>
-  <si>
-    <t>-1.6103056219117318</t>
+    <t>0.9894</t>
+  </si>
+  <si>
+    <t>-0.3764222222222228</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>7.800000000000001</t>
-  </si>
-  <si>
-    <t>12.28816800409766</t>
-  </si>
-  <si>
-    <t>-14.766581298730864</t>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>3.977599999999999</t>
+  </si>
+  <si>
+    <t>-2.6768000000000054</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -651,67 +648,67 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -729,24 +726,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -764,17 +761,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -792,22 +789,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -825,17 +822,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.27</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2.2800000000000002</v>
+        <v>2.34</v>
       </c>
     </row>
   </sheetData>
